--- a/Assets/Designs/General/Projectile.xlsx
+++ b/Assets/Designs/General/Projectile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -36,6 +36,9 @@
     <t>ProjDamageRange</t>
   </si>
   <si>
+    <t>ProjSparsing</t>
+  </si>
+  <si>
     <t>bGuided</t>
   </si>
   <si>
@@ -45,9 +48,15 @@
     <t>bProxFuse</t>
   </si>
   <si>
+    <t>bAOE</t>
+  </si>
+  <si>
     <t>ProjProxRange</t>
   </si>
   <si>
+    <t>LockAngle</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -66,7 +75,22 @@
     <t>false</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>-1</t>
+  </si>
+  <si>
+    <t>BulletLeaf</t>
+  </si>
+  <si>
+    <t>LaserSmall</t>
+  </si>
+  <si>
+    <t>MissileSmall</t>
+  </si>
+  <si>
+    <t>BulletVT</t>
   </si>
 </sst>
 </file>
@@ -232,18 +256,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -570,7 +588,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,16 +612,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -612,96 +630,93 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1018,13 +1033,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="14.1111111111111" customWidth="1"/>
@@ -1035,14 +1050,17 @@
     <col min="7" max="7" width="13.1111111111111" customWidth="1"/>
     <col min="8" max="8" width="11.5555555555556" customWidth="1"/>
     <col min="9" max="9" width="14.2222222222222" customWidth="1"/>
-    <col min="10" max="10" width="15.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="11.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="15.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="16.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="29.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1069,69 +1087,260 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
+    <row r="2" s="1" customFormat="1" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
         <v>14</v>
       </c>
-      <c r="C3">
-        <v>36</v>
-      </c>
       <c r="D3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
+        <v>0.75</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.25</v>
+      </c>
+      <c r="F4">
+        <v>0.25</v>
+      </c>
+      <c r="G4">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>-1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>0.05</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>16</v>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6">
+        <v>0.75</v>
+      </c>
+      <c r="M6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0.05</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Projectile.xlsx
+++ b/Assets/Designs/General/Projectile.xlsx
@@ -11,7 +11,20 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -96,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1036,7 +1049,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1237,7 +1250,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G5">
         <v>0</v>

--- a/Assets/Designs/General/Projectile.xlsx
+++ b/Assets/Designs/General/Projectile.xlsx
@@ -1159,13 +1159,13 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="F3">
         <v>0.75</v>
@@ -1288,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>1</v>

--- a/Assets/Designs/General/Projectile.xlsx
+++ b/Assets/Designs/General/Projectile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="27948" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>BulletVT</t>
+  </si>
+  <si>
+    <t>ClevProjParent</t>
+  </si>
+  <si>
+    <t>ClevProjChild</t>
+  </si>
+  <si>
+    <t>SummonedVine</t>
   </si>
 </sst>
 </file>
@@ -1046,13 +1055,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="14.1111111111111" customWidth="1"/>
@@ -1168,7 +1177,7 @@
         <v>1.75</v>
       </c>
       <c r="F3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1353,6 +1362,129 @@
         <v>2</v>
       </c>
       <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>0.33</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.75</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>0.75</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Designs/General/Projectile.xlsx
+++ b/Assets/Designs/General/Projectile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12420"/>
+    <workbookView windowWidth="29868" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>SummonedVine</t>
+  </si>
+  <si>
+    <t>SummonedLaser</t>
+  </si>
+  <si>
+    <t>TimeSlowProj</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +1061,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1297,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1485,6 +1491,88 @@
         <v>-1</v>
       </c>
       <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>625</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12">
+        <v>-1</v>
+      </c>
+      <c r="M12">
         <v>0</v>
       </c>
     </row>
